--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{70B98C8D-D432-4D2E-8509-16E3A697736D}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="360" windowWidth="26700" windowHeight="20400" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,9 +69,6 @@
     <t>R'</t>
   </si>
   <si>
-    <t>Verantwortlich</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -160,9 +156,6 @@
     <t>Zeitplan kann eingehalten werden</t>
   </si>
   <si>
-    <t>Arbeit genau dokumentieren, austausch unter den Mitarbeitern</t>
-  </si>
-  <si>
     <t>Fachwissen bleibt erhalten</t>
   </si>
   <si>
@@ -196,18 +189,12 @@
     <t>Ziele ändern sich</t>
   </si>
   <si>
-    <t>Auftraggeber will etwas Neues, realisierung nicht möglich</t>
-  </si>
-  <si>
     <t>Projekt kommt in grössere Dimension</t>
   </si>
   <si>
     <t>Zielvorgaben werden zu Beginn klar definiert</t>
   </si>
   <si>
-    <t>Keine unvorhergesehenen änderungen</t>
-  </si>
-  <si>
     <t>Strukturplan unvollständig</t>
   </si>
   <si>
@@ -232,15 +219,9 @@
     <t>Spannungen im Team</t>
   </si>
   <si>
-    <t>Arbeitsteilung/-qualität, Meinungsdiffferenzen</t>
-  </si>
-  <si>
     <t>Moral &amp; Qualität sinken</t>
   </si>
   <si>
-    <t>Faire &amp; bedachte Arbeitsaufteilung, Meinungsunterschiede vesprechen</t>
-  </si>
-  <si>
     <t>Differenzen werden stark reduziert</t>
   </si>
   <si>
@@ -329,6 +310,24 @@
   </si>
   <si>
     <t>Alle</t>
+  </si>
+  <si>
+    <t>Keine unvorhergesehenen Änderungen</t>
+  </si>
+  <si>
+    <t>Arbeitsteilung/-qualität, Meinungsdifferenzen</t>
+  </si>
+  <si>
+    <t>Auftraggeber will etwas Neues, Realisierung nicht möglich</t>
+  </si>
+  <si>
+    <t>Arbeit genau dokumentieren, Austausch unter den Mitarbeitern</t>
+  </si>
+  <si>
+    <t>Wer</t>
+  </si>
+  <si>
+    <t>Faire Arbeitsaufteilung, Meinungsunterschiede besprechen</t>
   </si>
 </sst>
 </file>
@@ -404,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -634,11 +633,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -661,45 +686,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -720,50 +714,110 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,102 +1133,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
-  <dimension ref="C2:R20"/>
+  <dimension ref="C2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="R26" sqref="Q20:R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="11" width="35.7109375" customWidth="1"/>
-    <col min="12" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="9" width="2.6328125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" customWidth="1"/>
+    <col min="12" max="14" width="2.6328125" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.7265625" customWidth="1"/>
+    <col min="18" max="18" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="3:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="3:18" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -1182,14 +1235,14 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="32">
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1197,31 +1250,25 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="33">
         <v>3</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1229,46 +1276,40 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="35">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
@@ -1276,14 +1317,14 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1291,31 +1332,25 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="35">
         <v>1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -1323,14 +1358,14 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
@@ -1338,31 +1373,25 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="35">
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>17</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1370,14 +1399,14 @@
       <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L9" s="3">
         <v>2</v>
@@ -1385,31 +1414,25 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="34">
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1417,46 +1440,40 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="32">
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="35">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="47">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1464,40 +1481,40 @@
       <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="47">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1505,14 +1522,14 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
@@ -1520,25 +1537,25 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="34">
         <v>2</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1546,14 +1563,14 @@
       <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
@@ -1561,74 +1578,74 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="35">
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="47">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="48">
+        <v>2</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="44">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="46">
-        <v>2</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+    </row>
+    <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1643,9 +1660,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="3:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16" t="s">
-        <v>96</v>
+    <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1660,14 +1677,67 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:18" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q21" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q22" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q23" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q24" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="J3:O3"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1679,167 +1749,167 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" customWidth="1"/>
-    <col min="9" max="11" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="5" width="12.7265625" customWidth="1"/>
+    <col min="9" max="11" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="26" t="s">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="E11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="28" t="s">
+    </row>
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="24">
+        <v>3</v>
+      </c>
+      <c r="J15" s="25">
+        <v>6</v>
+      </c>
+      <c r="K15" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="42"/>
+      <c r="H16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="27">
+        <v>2</v>
+      </c>
+      <c r="J16" s="21">
+        <v>4</v>
+      </c>
+      <c r="K16" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="42"/>
+      <c r="H17" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="30">
+        <v>2</v>
+      </c>
+      <c r="K17" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="K18" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="36">
-        <v>3</v>
-      </c>
-      <c r="J15" s="37">
-        <v>6</v>
-      </c>
-      <c r="K15" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="33"/>
-      <c r="H16" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="39">
-        <v>2</v>
-      </c>
-      <c r="J16" s="32">
-        <v>4</v>
-      </c>
-      <c r="K16" s="40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="7:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="41">
-        <v>1</v>
-      </c>
-      <c r="J17" s="42">
-        <v>2</v>
-      </c>
-      <c r="K17" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{70B98C8D-D432-4D2E-8509-16E3A697736D}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{32361156-2162-4D8D-BA62-D11BF945555D}"/>
   <bookViews>
     <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Faire Arbeitsaufteilung, Meinungsunterschiede besprechen</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -756,6 +756,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,48 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="C2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="R26" sqref="Q20:R26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O14" sqref="C3:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,23 +1157,23 @@
   <sheetData>
     <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
@@ -1188,13 +1188,13 @@
       <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="43" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -1203,17 +1203,17 @@
       <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="49" t="s">
-        <v>97</v>
+      <c r="O4" s="42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1221,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1262,13 +1262,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1280,11 +1280,11 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1303,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
@@ -1321,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1344,13 +1344,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -1362,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1385,13 +1385,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1403,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="3">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,13 +1426,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1444,11 +1444,11 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1467,13 +1467,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1485,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -1526,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -1549,13 +1549,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1567,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
@@ -1582,21 +1582,21 @@
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="12" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
@@ -1604,14 +1604,14 @@
       <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="40">
         <v>6</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
@@ -1619,33 +1619,33 @@
       <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="41">
         <v>2</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
+      <c r="C15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
     </row>
     <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1680,57 +1680,57 @@
     <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:18" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q20" s="39" t="s">
+      <c r="Q20" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="40"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q21" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="52" t="s">
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q22" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q23" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q24" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q22" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="54" t="s">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="Q25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q23" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q24" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="54" t="s">
+    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q26" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="49" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q26" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="56" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1749,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1760,94 +1760,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C2" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="17" t="s">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="42" t="s">
-        <v>72</v>
+      <c r="G15" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="24">
         <v>3</v>
@@ -1860,9 +1860,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="42"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="27">
         <v>2</v>
@@ -1875,9 +1875,9 @@
       </c>
     </row>
     <row r="17" spans="7:11" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G17" s="42"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="29">
         <v>1</v>
@@ -1893,23 +1893,23 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="K18" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="I19" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{32361156-2162-4D8D-BA62-D11BF945555D}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{449DDC1B-15E8-4E6F-B8E4-E5D776728276}"/>
   <bookViews>
-    <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -834,6 +834,2071 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>404450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFF35AA-3B9E-45FB-A028-05CE1D9E14BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966200" y="2997200"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1522050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>417150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB76C75F-8765-4E85-A12D-7B8867B15B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="3009900"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>398100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E94D544-E053-4963-BD56-42D83A395AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="2990850"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>398100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Ellipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F389C82-482D-443A-AA86-08FA3E128D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6737350" y="5276850"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>690200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>760050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8521CE66-F0F2-43C7-9410-1944AB08AC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7054850" y="3352800"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>741000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9375E25E-66B6-45E0-BF1F-EDFDAC5E6D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="5619750"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>730250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1052150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1090250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3658261A-688D-4D92-8C99-52961905AB71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="3683000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>730250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1045800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1090250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Ellipse 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEE167C-D11D-40DF-842E-B71E75EB58F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="5969000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>398100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Ellipse 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B47127-2C5D-430F-8DB8-4B8E8CF7CB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="4133850"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1549400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>736600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1909400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1096600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Ellipse 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1483F1-EA1B-466C-86B5-F755C52DD911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8274050" y="4832350"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1471250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1083900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Ellipse 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648AAD36-6611-45B0-B3AA-48C5CF2B2ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9975850" y="3676650"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1560150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>766400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Ellipse 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B509D63-9E10-4959-9D1E-06324C7445E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="5645150"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>925150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>982300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Ellipse 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2062AE08-5C10-440B-8B82-669E9A9E3E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="4718050"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1746250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2106250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>772750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Ellipse 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D628D5E-6829-4A1B-91E4-F629B6BA25C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8470900" y="5651500"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>615950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1471250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>975950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Ellipse 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEAA4B2-89B0-4DF0-9971-55CF7BD4B6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9975850" y="4711700"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>772750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Ellipse 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17791FC-5CE0-48CD-9B17-1DD2A051DC45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9017000" y="5651500"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>730250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>868000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1090250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Ellipse 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A9AB0B-1527-4BF4-89B7-F45FDD6C1F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11512550" y="5969000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>736600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1826850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1096600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Ellipse 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC42017-4AAE-41D6-9767-4CF20CF1FB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="5975350"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1083900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Ellipse 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C69470-FBE7-4728-A3DA-6C87B82BC780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978900" y="3676650"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1903050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>639400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Ellipse 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4A12F6-73A4-4D36-898E-628C466B9899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="4375150"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1522050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>237150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Gerade Verbindung mit Pfeil 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689C2EBD-A642-48C3-81E8-01ABC39817A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8246700" y="3177200"/>
+          <a:ext cx="719500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>398100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF5D704-B86E-491A-87E5-CE36B8FA889F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6917350" y="3350850"/>
+          <a:ext cx="6350" cy="1926000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>760050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3C6D3A-1782-4770-86AE-618A1D9C93AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7228500" y="3712800"/>
+          <a:ext cx="6350" cy="1906950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>865800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1090250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>872150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>730250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Gerade Verbindung mit Pfeil 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B392BE-D959-44E2-9633-09096CA23C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="4"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7590450" y="4043000"/>
+          <a:ext cx="6350" cy="1926000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1850329</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1031179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167021</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>332121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Gerade Verbindung mit Pfeil 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1BD667-AD3E-4346-BAF3-8D528D2865E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="24" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8574979" y="3983929"/>
+          <a:ext cx="456642" cy="443942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1856679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>345379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179721</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>789321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Gerade Verbindung mit Pfeil 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEC05EF-4080-4C0D-BD43-7ACD8CCCE000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8581329" y="4441129"/>
+          <a:ext cx="462992" cy="443942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1507429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1031179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1163971</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>459121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Gerade Verbindung mit Pfeil 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898932D2-E5EB-4D48-8E9C-5CA5F2EBD280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="16" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8232079" y="3983929"/>
+          <a:ext cx="1796492" cy="1713942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2053529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>929579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617871</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>465471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Gerade Verbindung mit Pfeil 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0824E5DA-4F21-4107-B475-CF8639CFDF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="18" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8778179" y="5025329"/>
+          <a:ext cx="704292" cy="678892"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>923229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1163971</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>465471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Gerade Verbindung mit Pfeil 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF188A54-3120-4196-9678-DB185C107DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="20" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9324279" y="5018979"/>
+          <a:ext cx="704292" cy="685242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1826850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>910250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>916600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Gerade Verbindung mit Pfeil 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398FAF99-D40B-41A3-886A-00E0E2D74FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="22" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8551500" y="6149000"/>
+          <a:ext cx="2961050" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="C2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O14" sqref="C3:O14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,15 +3813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="B2:E5"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="5" width="12.7265625" customWidth="1"/>
-    <col min="9" max="11" width="20.7265625" customWidth="1"/>
+    <col min="9" max="11" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
@@ -1842,7 +3907,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" s="56" t="s">
         <v>71</v>
       </c>
@@ -1859,7 +3924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G16" s="56"/>
       <c r="H16" s="22" t="s">
         <v>86</v>
@@ -1874,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:11" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G17" s="56"/>
       <c r="H17" s="22" t="s">
         <v>85</v>
@@ -1919,5 +3984,6 @@
     <mergeCell ref="I19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{449DDC1B-15E8-4E6F-B8E4-E5D776728276}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{003C9C07-01BA-402B-85A2-021FFCD525E9}"/>
   <bookViews>
     <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>Risiko</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Hoch</t>
   </si>
   <si>
-    <t>Eintrisswahrscheinlichkeit</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Schadensausmass [Si]</t>
+  </si>
+  <si>
+    <t>Eintrittswahrscheinlichkeit [Pi]</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -659,11 +662,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -707,10 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,9 +894,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3200,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="C2:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3222,23 +3334,23 @@
   <sheetData>
     <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
@@ -3253,13 +3365,13 @@
       <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -3268,17 +3380,17 @@
       <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="42" t="s">
-        <v>96</v>
+      <c r="O4" s="40" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3300,7 +3412,7 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="30">
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -3315,11 +3427,11 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>3</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3341,7 +3453,7 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3356,11 +3468,11 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="33">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3382,11 +3494,11 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
@@ -3397,11 +3509,11 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="33">
         <v>1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3423,7 +3535,7 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -3438,11 +3550,11 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="33">
         <v>1</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3464,7 +3576,7 @@
       <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -3479,11 +3591,11 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="32">
         <v>2</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3505,7 +3617,7 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="30">
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -3520,11 +3632,11 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3535,7 +3647,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>51</v>
@@ -3546,14 +3658,14 @@
       <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -3561,11 +3673,11 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <v>1</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3587,7 +3699,7 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -3602,11 +3714,11 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="32">
         <v>2</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,7 +3740,7 @@
       <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -3643,22 +3755,22 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="33">
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>61</v>
@@ -3669,11 +3781,11 @@
       <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>6</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>62</v>
@@ -3684,29 +3796,29 @@
       <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <v>2</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="11" t="s">
@@ -3727,7 +3839,7 @@
     </row>
     <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3745,56 +3857,56 @@
     <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:18" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="R20" s="54"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q21" s="44" t="s">
+      <c r="Q21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q22" s="46" t="s">
+      <c r="Q22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q23" s="46" t="s">
+      <c r="Q23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q24" s="46" t="s">
+      <c r="Q24" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q25" s="46" t="s">
+      <c r="Q25" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3811,25 +3923,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:K19"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="I19" sqref="G15:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="5" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" customWidth="1"/>
     <col min="9" max="11" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -3874,11 +3988,11 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
@@ -3908,73 +4022,79 @@
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>3</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>6</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G16" s="56"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="25">
         <v>2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>4</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G17" s="56"/>
-      <c r="H17" s="22" t="s">
+    <row r="17" spans="6:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="62"/>
+      <c r="H17" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <v>1</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="23" t="s">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+    <row r="19" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3984,6 +4104,7 @@
     <mergeCell ref="I19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{C19DBB8D-1E2C-400D-B533-8FF56A531C9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{003C9C07-01BA-402B-85A2-021FFCD525E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE1ACC-B805-4505-BDB6-C83521079476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18650" yWindow="360" windowWidth="26700" windowHeight="20400" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Risiko</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Verlust von Fachwissen &amp; Fachkraft</t>
   </si>
   <si>
-    <t>PM fällt aus (temporär)</t>
-  </si>
-  <si>
-    <t>PM fällt aus (permanent)</t>
-  </si>
-  <si>
     <t>Kündigung/Unfall</t>
   </si>
   <si>
@@ -331,13 +325,22 @@
   </si>
   <si>
     <t>Eintrittswahrscheinlichkeit [Pi]</t>
+  </si>
+  <si>
+    <t>PL fällt aus (temporär)</t>
+  </si>
+  <si>
+    <t>PL fällt aus (permanent)</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +364,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +428,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -521,45 +550,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -745,38 +735,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -792,99 +759,72 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,17 +834,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,25 +852,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3310,604 +3289,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
-  <dimension ref="C2:R26"/>
+  <dimension ref="C3:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="9" width="2.6328125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" customWidth="1"/>
-    <col min="12" max="14" width="2.6328125" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="11" width="26.21875" customWidth="1"/>
+    <col min="12" max="14" width="6.44140625" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="3.7265625" customWidth="1"/>
-    <col min="18" max="18" width="43.453125" customWidth="1"/>
+    <col min="17" max="17" width="3.77734375" customWidth="1"/>
+    <col min="18" max="18" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="48" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="49">
+        <v>3</v>
+      </c>
+      <c r="H5" s="49">
+        <v>2</v>
+      </c>
+      <c r="I5" s="50">
+        <v>6</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="49">
+        <v>3</v>
+      </c>
+      <c r="M5" s="49">
+        <v>1</v>
+      </c>
+      <c r="N5" s="51">
+        <v>3</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="49">
+        <v>3</v>
+      </c>
+      <c r="H6" s="49">
+        <v>1</v>
+      </c>
+      <c r="I6" s="51">
+        <v>3</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="49">
+        <v>1</v>
+      </c>
+      <c r="M6" s="49">
+        <v>1</v>
+      </c>
+      <c r="N6" s="52">
+        <v>1</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+      <c r="H7" s="49">
+        <v>1</v>
+      </c>
+      <c r="I7" s="51">
+        <v>3</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="49">
+        <v>1</v>
+      </c>
+      <c r="M7" s="49">
+        <v>1</v>
+      </c>
+      <c r="N7" s="52">
+        <v>1</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="49">
+        <v>1</v>
+      </c>
+      <c r="I8" s="51">
+        <v>3</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="49">
+        <v>1</v>
+      </c>
+      <c r="M8" s="49">
+        <v>1</v>
+      </c>
+      <c r="N8" s="52">
+        <v>1</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="49">
+        <v>2</v>
+      </c>
+      <c r="H9" s="49">
+        <v>2</v>
+      </c>
+      <c r="I9" s="51">
+        <v>4</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="49">
+        <v>2</v>
+      </c>
+      <c r="M9" s="49">
+        <v>1</v>
+      </c>
+      <c r="N9" s="53">
+        <v>2</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="49">
+        <v>3</v>
+      </c>
+      <c r="H10" s="49">
+        <v>2</v>
+      </c>
+      <c r="I10" s="50">
+        <v>6</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="49">
+        <v>1</v>
+      </c>
+      <c r="M10" s="49">
+        <v>1</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="49">
+        <v>2</v>
+      </c>
+      <c r="H11" s="49">
+        <v>2</v>
+      </c>
+      <c r="I11" s="51">
+        <v>4</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="49">
+        <v>1</v>
+      </c>
+      <c r="M11" s="49">
+        <v>1</v>
+      </c>
+      <c r="N11" s="52">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="49">
+        <v>2</v>
+      </c>
+      <c r="H12" s="49">
+        <v>2</v>
+      </c>
+      <c r="I12" s="51">
+        <v>4</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="49">
+        <v>2</v>
+      </c>
+      <c r="M12" s="49">
+        <v>1</v>
+      </c>
+      <c r="N12" s="53">
+        <v>2</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="49">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3</v>
+      </c>
+      <c r="I13" s="51">
+        <v>3</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="49">
+        <v>1</v>
+      </c>
+      <c r="M13" s="49">
+        <v>1</v>
+      </c>
+      <c r="N13" s="52">
+        <v>1</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="47" t="s">
         <v>95</v>
       </c>
+      <c r="D14" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="49">
+        <v>3</v>
+      </c>
+      <c r="H14" s="49">
+        <v>2</v>
+      </c>
+      <c r="I14" s="50">
+        <v>6</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="49">
+        <v>2</v>
+      </c>
+      <c r="M14" s="49">
+        <v>1</v>
+      </c>
+      <c r="N14" s="53">
+        <v>2</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="30">
+    <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+    </row>
+    <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="59"/>
+    </row>
+    <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+    </row>
+    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:18" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="36"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="Q21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="31">
-        <v>3</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>90</v>
+      <c r="R21" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="33">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>89</v>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="Q22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="33">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>90</v>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="Q23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="33">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>89</v>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="Q24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="31">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>89</v>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="Q25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="30">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="33">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="31">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="33">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="31">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="32">
-        <v>2</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="31">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="33">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" s="1" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2</v>
-      </c>
-      <c r="I14" s="38">
-        <v>6</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="6">
-        <v>2</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="39">
-        <v>2</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="3:18" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q20" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" s="52"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q21" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q22" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="45" t="s">
+    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="26" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q23" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q24" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="Q25" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q26" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="47" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3923,178 +3899,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="I19" sqref="G15:K19"/>
+    <sheetView topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="5" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="3.54296875" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="11" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="11" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="17" t="s">
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>79</v>
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3</v>
+      </c>
+      <c r="J15" s="14">
+        <v>6</v>
+      </c>
+      <c r="K15" s="15">
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+    <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="39"/>
+      <c r="H16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>74</v>
+    <row r="17" spans="7:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="40"/>
+      <c r="H17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="20">
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>83</v>
+      <c r="K18" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="22">
-        <v>3</v>
-      </c>
-      <c r="J15" s="23">
-        <v>6</v>
-      </c>
-      <c r="K15" s="24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="56"/>
-      <c r="H16" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="25">
-        <v>2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G17" s="62"/>
-      <c r="H17" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="27">
-        <v>1</v>
-      </c>
-      <c r="J17" s="28">
-        <v>2</v>
-      </c>
-      <c r="K17" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F18" s="66"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+    <row r="19" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE1ACC-B805-4505-BDB6-C83521079476}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94205051-8888-48A0-B2C1-D4C030EAEE9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>Risiko</t>
   </si>
@@ -334,6 +334,30 @@
   </si>
   <si>
     <t>PL</t>
+  </si>
+  <si>
+    <t>Budgetüberschreitung</t>
+  </si>
+  <si>
+    <t>Mässig (1)</t>
+  </si>
+  <si>
+    <t>(fast) sicher
+&gt; 70%</t>
+  </si>
+  <si>
+    <t>Halb-halb 
+30% - 70%</t>
+  </si>
+  <si>
+    <t>Kaum 
+&lt; 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 10% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; 25%</t>
   </si>
 </sst>
 </file>
@@ -435,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -731,64 +755,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,54 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +849,128 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3289,789 +3351,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
-  <dimension ref="C3:R26"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="6" width="26.21875" customWidth="1"/>
-    <col min="7" max="9" width="6.44140625" customWidth="1"/>
-    <col min="10" max="11" width="26.21875" customWidth="1"/>
-    <col min="12" max="14" width="6.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.21875" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="3.77734375" customWidth="1"/>
-    <col min="18" max="18" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="12" width="3.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="44" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="45" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="M2" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="47" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="49">
+      <c r="E3" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="49">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="I5" s="50">
+      <c r="G3" s="13">
         <v>6</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="49">
+      <c r="J3" s="12">
         <v>3</v>
       </c>
-      <c r="M5" s="49">
+      <c r="K3" s="12">
         <v>1</v>
       </c>
-      <c r="N5" s="51">
+      <c r="L3" s="14">
         <v>3</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="M3" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="47" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="49">
+      <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="H6" s="49">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="51">
+      <c r="G4" s="14">
         <v>3</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="I4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="49">
+      <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="M6" s="49">
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="52">
+      <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="M4" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="47" t="s">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="49">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="H7" s="49">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="51">
+      <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="H5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="49">
+      <c r="J5" s="12">
         <v>1</v>
       </c>
-      <c r="M7" s="49">
+      <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="52">
+      <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="M5" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="47" t="s">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="D6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="49">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="49">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="51">
+      <c r="G6" s="14">
         <v>3</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="H6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="I6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="49">
+      <c r="J6" s="12">
         <v>1</v>
       </c>
-      <c r="M8" s="49">
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="N8" s="52">
+      <c r="L6" s="15">
         <v>1</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="M6" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="47" t="s">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="B7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="49">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="49">
+      <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="I9" s="51">
+      <c r="G7" s="14">
         <v>4</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="I7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="49">
+      <c r="J7" s="12">
         <v>2</v>
       </c>
-      <c r="M9" s="49">
+      <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="53">
+      <c r="L7" s="16">
         <v>2</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="M7" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="47" t="s">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="49">
+      <c r="E8" s="12">
         <v>3</v>
       </c>
-      <c r="H10" s="49">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="I10" s="50">
+      <c r="G8" s="13">
         <v>6</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="H8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="I8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="49">
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="M10" s="49">
+      <c r="K8" s="12">
         <v>1</v>
       </c>
-      <c r="N10" s="52">
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="M8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="47" t="s">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="C9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="D9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="49">
+      <c r="E9" s="12">
         <v>2</v>
       </c>
-      <c r="H11" s="49">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="I11" s="51">
+      <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="H9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="I9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="49">
+      <c r="J9" s="12">
         <v>1</v>
       </c>
-      <c r="M11" s="49">
+      <c r="K9" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="52">
+      <c r="L9" s="15">
         <v>1</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="M9" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="47" t="s">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="49">
+      <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="H12" s="49">
+      <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="I12" s="51">
+      <c r="G10" s="14">
         <v>4</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="H10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="I10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="49">
+      <c r="J10" s="12">
         <v>2</v>
       </c>
-      <c r="M12" s="49">
+      <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="N12" s="53">
+      <c r="L10" s="16">
         <v>2</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="M10" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="47" t="s">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="49">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="49">
+      <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="I13" s="51">
+      <c r="G11" s="14">
         <v>3</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="H11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="I11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="49">
+      <c r="J11" s="12">
         <v>1</v>
       </c>
-      <c r="M13" s="49">
+      <c r="K11" s="12">
         <v>1</v>
       </c>
-      <c r="N13" s="52">
+      <c r="L11" s="15">
         <v>1</v>
       </c>
-      <c r="O13" s="49" t="s">
+      <c r="M11" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="3:15" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="47" t="s">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="B12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="C12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="D12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="49">
+      <c r="E12" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="49">
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="I14" s="50">
+      <c r="G12" s="13">
         <v>6</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="H12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="I12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="49">
+      <c r="J12" s="12">
         <v>2</v>
       </c>
-      <c r="M14" s="49">
+      <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="N14" s="53">
+      <c r="L12" s="16">
         <v>2</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="M12" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="54" t="s">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
-    <row r="16" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="58" t="s">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="59"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="22"/>
     </row>
-    <row r="17" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="60" t="s">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
     </row>
-    <row r="18" spans="3:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:18" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q20" s="35" t="s">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="15:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="15:16" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="R20" s="36"/>
+      <c r="P18" s="29"/>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="Q21" s="21" t="s">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="P19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="Q22" s="23" t="s">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="P20" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="Q23" s="23" t="s">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="P21" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="Q24" s="23" t="s">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="24" t="s">
+      <c r="P22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="Q25" s="23" t="s">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="P23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q26" s="25" t="s">
+    <row r="24" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="P24" s="7" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="5" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="11" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="30"/>
+    <col min="2" max="2" width="14.44140625" style="30" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="30"/>
+    <col min="7" max="7" width="3.5546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="30" customWidth="1"/>
+    <col min="9" max="11" width="30.6640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="30"/>
+    <col min="13" max="13" width="20.6640625" style="30" customWidth="1"/>
+    <col min="14" max="16" width="15.109375" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="37" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="40">
         <v>3</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="41">
         <v>6</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="42">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="39"/>
-      <c r="H16" s="11" t="s">
+    <row r="16" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="43"/>
+      <c r="H16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="45">
         <v>2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="46">
         <v>4</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="40"/>
-      <c r="H17" s="30" t="s">
+    <row r="17" spans="7:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="50">
         <v>1</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="51">
         <v>2</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="52">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G18" s="32"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29" t="s">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="41" t="s">
+    <row r="19" spans="7:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="63"/>
+      <c r="N22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="65"/>
+      <c r="N27" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="66"/>
+      <c r="N28" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="7:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="69" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="M27:M28"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF5BA8F-5520-45E8-AF7B-931A374597A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FFCBBC-6B82-4516-B211-79BFF5A70E75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -364,25 +365,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -409,18 +394,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -474,17 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -778,207 +746,192 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3360,598 +3313,599 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="7" width="3.44140625" customWidth="1"/>
-    <col min="8" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" customWidth="1"/>
-    <col min="16" max="16" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" style="20" customWidth="1"/>
+    <col min="5" max="7" width="3.44140625" style="20" customWidth="1"/>
+    <col min="8" max="9" width="24.44140625" style="20" customWidth="1"/>
+    <col min="10" max="12" width="3.44140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="9" style="20" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="45.77734375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="5">
         <v>3</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="7">
         <v>3</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="7">
         <v>4</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="7">
         <v>4</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="5">
         <v>2</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" s="65" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="15:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="15:16" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O18" s="58" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="15:16" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="15:16" s="65" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="59"/>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O19" s="2" t="s">
+      <c r="P18" s="68"/>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="67" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O20" s="4" t="s">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="4" t="s">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="4" t="s">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O23" s="4" t="s">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="15:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O24" s="6" t="s">
+    <row r="24" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O24" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3970,316 +3924,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="27"/>
-    <col min="2" max="2" width="14.44140625" style="27" customWidth="1"/>
-    <col min="3" max="5" width="12.77734375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="27"/>
-    <col min="7" max="7" width="3.5546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="27" customWidth="1"/>
-    <col min="9" max="11" width="25.88671875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="27"/>
-    <col min="13" max="13" width="20.6640625" style="27" customWidth="1"/>
-    <col min="14" max="16" width="15.109375" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="27"/>
+    <col min="1" max="1" width="11.5546875" style="20"/>
+    <col min="2" max="2" width="14.44140625" style="20" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="20"/>
+    <col min="7" max="7" width="3.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
+    <col min="9" max="11" width="25.88671875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="20"/>
+    <col min="13" max="13" width="20.6640625" style="20" customWidth="1"/>
+    <col min="14" max="16" width="15.109375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="69"/>
-      <c r="G15" s="63" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="28">
         <v>3</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="29">
         <v>6</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="30">
         <v>9</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="69"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="38" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="32">
         <v>2</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="33">
         <v>4</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="34">
         <v>6</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="6:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="69"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="42" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="36">
         <v>1</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="37">
         <v>2</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="38">
         <v>3</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="46" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="6:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="69"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="66" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M22" s="49"/>
-      <c r="N22" s="60" t="s">
+      <c r="M22" s="42"/>
+      <c r="N22" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="N23" s="54" t="s">
+      <c r="N23" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="55" t="s">
+      <c r="O23" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="P23" s="56" t="s">
+      <c r="P23" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="50" t="s">
+      <c r="N24" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="P24" s="50" t="s">
+      <c r="P24" s="43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M25" s="49" t="s">
+      <c r="M25" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="50" t="s">
+      <c r="O25" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="50" t="s">
+      <c r="P25" s="43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M27" s="61"/>
-      <c r="N27" s="60" t="s">
+      <c r="M27" s="57"/>
+      <c r="N27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
     </row>
     <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M28" s="62"/>
-      <c r="N28" s="54" t="s">
+      <c r="M28" s="58"/>
+      <c r="N28" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="6:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="N29" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="46" t="s">
         <v>103</v>
       </c>
     </row>

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\EIT\FS19\pro2E\Team 5\P2Pflichtenheft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d3d50152f9d1fbf/FHNW/2.Semester/pro2E/GitHub/P2Pflichtenheft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FFCBBC-6B82-4516-B211-79BFF5A70E75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="102_{F2D96540-3423-4F2E-ADCA-B42449A32093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{BBFBAB3A-3CAA-46A2-9B7D-D6FEA4A92BFE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14020" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>Risiko</t>
   </si>
@@ -359,6 +358,36 @@
   </si>
   <si>
     <t xml:space="preserve"> &gt; 25%</t>
+  </si>
+  <si>
+    <t>Vergolden</t>
+  </si>
+  <si>
+    <t>Unflexible Architektur</t>
+  </si>
+  <si>
+    <t>Änderungen sind nur erschwert umzusetzen</t>
+  </si>
+  <si>
+    <t>Zusätzliche Features ohne kenntniss des Auftraggebers</t>
+  </si>
+  <si>
+    <t>Ressourcessen &amp; Vertrauen gehen verloren</t>
+  </si>
+  <si>
+    <t>Architektur ist zu verflochten</t>
+  </si>
+  <si>
+    <t>Zusätze mit Auftraggeber absprechen</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichket unerwünschter Zusätze minimiert</t>
+  </si>
+  <si>
+    <t>Architektur zu beginn flexibel planen</t>
+  </si>
+  <si>
+    <t>Anderungen sind einfach zu bewerkstelligen</t>
   </si>
 </sst>
 </file>
@@ -746,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,9 +919,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,17 +961,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,15 +1289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:rowOff>412750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>690200</xdr:colOff>
+      <xdr:colOff>594950</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>760050</xdr:rowOff>
+      <xdr:rowOff>772750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1277,7 +1312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7054850" y="3352800"/>
+          <a:off x="6394450" y="3441700"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1330,15 +1365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>730250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>683850</xdr:colOff>
+      <xdr:colOff>594950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>741000</xdr:rowOff>
+      <xdr:rowOff>1090250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1353,7 +1388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="5619750"/>
+          <a:off x="6394450" y="6045200"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1404,15 +1439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>646430</xdr:colOff>
+      <xdr:colOff>678180</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>730250</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1006430</xdr:colOff>
+      <xdr:colOff>1038180</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1090250</xdr:rowOff>
+      <xdr:rowOff>404450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1427,7 +1462,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6689090" y="3717290"/>
+          <a:off x="6837680" y="3073400"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1480,13 +1515,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>730250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1007700</xdr:colOff>
+      <xdr:colOff>1026750</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1090250</xdr:rowOff>
     </xdr:to>
@@ -1503,7 +1538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6690360" y="6003290"/>
+          <a:off x="6826250" y="6045200"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1630,15 +1665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:colOff>1037590</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>736600</xdr:rowOff>
+      <xdr:rowOff>749300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1718900</xdr:colOff>
+      <xdr:colOff>1407750</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1096600</xdr:rowOff>
+      <xdr:rowOff>1109300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1653,7 +1688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="4866640"/>
+          <a:off x="7197090" y="4921250"/>
           <a:ext cx="370160" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1704,15 +1739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:colOff>1282700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
+      <xdr:rowOff>711200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1471250</xdr:colOff>
+      <xdr:colOff>1642700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1083900</xdr:rowOff>
+      <xdr:rowOff>1071200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1727,7 +1762,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9975850" y="3676650"/>
+          <a:off x="9251950" y="3740150"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1780,15 +1815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1062990</xdr:colOff>
+      <xdr:colOff>897890</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>246380</xdr:rowOff>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1422990</xdr:colOff>
+      <xdr:colOff>1257890</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>606380</xdr:rowOff>
+      <xdr:rowOff>403180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1803,7 +1838,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="5519420"/>
+          <a:off x="7057390" y="5358130"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1854,15 +1889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>622300</xdr:rowOff>
+      <xdr:rowOff>704850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>925150</xdr:colOff>
+      <xdr:colOff>1255350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>982300</xdr:rowOff>
+      <xdr:rowOff>1064850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1877,7 +1912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9429750" y="4718050"/>
+          <a:off x="8864600" y="4876800"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1930,15 +1965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:colOff>1393190</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>359410</xdr:rowOff>
+      <xdr:rowOff>492760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3130</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1781130</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>719410</xdr:rowOff>
+      <xdr:rowOff>852760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1953,8 +1988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="5632450"/>
-          <a:ext cx="353650" cy="360000"/>
+          <a:off x="7552690" y="5807710"/>
+          <a:ext cx="387940" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2004,15 +2039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:colOff>1339850</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>615950</xdr:rowOff>
+      <xdr:rowOff>673100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1471250</xdr:colOff>
+      <xdr:colOff>1699850</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>975950</xdr:rowOff>
+      <xdr:rowOff>1033100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2027,7 +2062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9975850" y="4711700"/>
+          <a:off x="9309100" y="4845050"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2080,15 +2115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>1346200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>412750</xdr:rowOff>
+      <xdr:rowOff>368300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>512400</xdr:colOff>
+      <xdr:colOff>1706200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>772750</xdr:rowOff>
+      <xdr:rowOff>728300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2103,7 +2138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9017000" y="5651500"/>
+          <a:off x="9315450" y="5683250"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2230,15 +2265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1394460</xdr:colOff>
+      <xdr:colOff>1076960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>736600</xdr:rowOff>
+      <xdr:rowOff>730250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1758270</xdr:colOff>
+      <xdr:colOff>1440770</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1096600</xdr:rowOff>
+      <xdr:rowOff>1090250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2253,7 +2288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7437120" y="6009640"/>
+          <a:off x="7236460" y="6045200"/>
           <a:ext cx="363810" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2304,15 +2339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>474300</xdr:colOff>
+      <xdr:colOff>480650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1083900</xdr:rowOff>
+      <xdr:rowOff>1045800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2327,7 +2362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978900" y="3676650"/>
+          <a:off x="8089900" y="3714750"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2380,15 +2415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:colOff>1018540</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1697310</xdr:colOff>
+      <xdr:colOff>1367110</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>639400</xdr:rowOff>
+      <xdr:rowOff>607650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2403,7 +2438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="4409440"/>
+          <a:off x="7178040" y="4419600"/>
           <a:ext cx="348570" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2566,15 +2601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
+      <xdr:colOff>414950</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>760050</xdr:rowOff>
+      <xdr:rowOff>772750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>510200</xdr:colOff>
+      <xdr:colOff>414950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>730250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2591,9 +2626,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7228500" y="3712800"/>
-          <a:ext cx="6350" cy="1906950"/>
+        <a:xfrm>
+          <a:off x="6574450" y="3801700"/>
+          <a:ext cx="0" cy="2243500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2622,13 +2657,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>826430</xdr:colOff>
+      <xdr:colOff>846750</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1090250</xdr:rowOff>
+      <xdr:rowOff>404450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>827700</xdr:colOff>
+      <xdr:colOff>858180</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>730250</xdr:rowOff>
     </xdr:to>
@@ -2647,9 +2682,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6869090" y="4077290"/>
-          <a:ext cx="1270" cy="1926000"/>
+        <a:xfrm flipH="1">
+          <a:off x="7006250" y="3433400"/>
+          <a:ext cx="11430" cy="2611800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2678,15 +2713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1646263</xdr:colOff>
+      <xdr:colOff>1316063</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1031179</xdr:rowOff>
+      <xdr:rowOff>993079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>167021</xdr:colOff>
+      <xdr:colOff>173371</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>332121</xdr:rowOff>
+      <xdr:rowOff>300371</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2704,8 +2739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7688923" y="4018219"/>
-          <a:ext cx="296218" cy="443942"/>
+          <a:off x="7475563" y="4022029"/>
+          <a:ext cx="667058" cy="450292"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2734,7 +2769,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1664691</xdr:colOff>
+      <xdr:colOff>1353541</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>345379</xdr:rowOff>
     </xdr:from>
@@ -2742,7 +2777,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>179721</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>789321</xdr:rowOff>
+      <xdr:rowOff>802021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2760,8 +2795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7707351" y="4475419"/>
-          <a:ext cx="290490" cy="443942"/>
+          <a:off x="7513041" y="4517329"/>
+          <a:ext cx="635930" cy="456642"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2790,15 +2825,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1370269</xdr:colOff>
+      <xdr:colOff>1205169</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1031179</xdr:rowOff>
+      <xdr:rowOff>1018479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1163971</xdr:colOff>
+      <xdr:colOff>1335421</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>299101</xdr:rowOff>
+      <xdr:rowOff>95901</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2816,8 +2851,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7412929" y="4018219"/>
-          <a:ext cx="1569162" cy="1553922"/>
+          <a:off x="7364669" y="4047429"/>
+          <a:ext cx="1940002" cy="1363422"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2846,15 +2881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1726799</xdr:colOff>
+      <xdr:colOff>1724318</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>929579</xdr:rowOff>
+      <xdr:rowOff>1012129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>617871</xdr:colOff>
+      <xdr:colOff>948071</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>412131</xdr:rowOff>
+      <xdr:rowOff>545481</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2872,8 +2907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7769459" y="5059619"/>
-          <a:ext cx="666532" cy="625552"/>
+          <a:off x="7883818" y="5184079"/>
+          <a:ext cx="1033503" cy="676352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2902,15 +2937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>459679</xdr:colOff>
+      <xdr:colOff>1519850</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>923229</xdr:rowOff>
+      <xdr:rowOff>1033100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1163971</xdr:colOff>
+      <xdr:colOff>1526200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>465471</xdr:rowOff>
+      <xdr:rowOff>368300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2922,14 +2957,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="20" idx="7"/>
+          <a:stCxn id="19" idx="4"/>
+          <a:endCxn id="20" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9324279" y="5018979"/>
-          <a:ext cx="704292" cy="685242"/>
+        <a:xfrm>
+          <a:off x="9489100" y="5205050"/>
+          <a:ext cx="6350" cy="478200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2958,7 +2993,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1758270</xdr:colOff>
+      <xdr:colOff>1440770</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>910250</xdr:rowOff>
     </xdr:from>
@@ -2966,7 +3001,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>916600</xdr:rowOff>
+      <xdr:rowOff>910250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2984,8 +3019,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7800930" y="6183290"/>
-          <a:ext cx="2300650" cy="6350"/>
+          <a:off x="7600270" y="6225200"/>
+          <a:ext cx="2686730" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3002,6 +3037,418 @@
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>679450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1039450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Ellipse 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A7F4E0-B4A0-4C44-B3B4-8E651F8026A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8197850" y="4851400"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>755650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>817200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1115650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Ellipse 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84355056-0A1D-43B5-9511-F051F6FC915D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="3784600"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1377950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1737950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>417150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Ellipse 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223A1042-4E6B-4932-923F-C92B13E4CB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7537450" y="5372100"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>810850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>404450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Ellipse 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BF0755-476E-4212-A19F-3F89BCC25150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="5359400"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>630850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1115650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>637200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Gerade Verbindung mit Pfeil 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1A507D-16B2-4D70-8F84-4248E0FEF403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="4"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6790350" y="4144600"/>
+          <a:ext cx="6350" cy="1214800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1685229</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>986729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281321</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Gerade Verbindung mit Pfeil 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6B02E7-03A4-41D1-B04C-0D23E8A54E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="34" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7844729" y="5158679"/>
+          <a:ext cx="405842" cy="266142"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -3313,45 +3760,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:P24"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" style="20" customWidth="1"/>
-    <col min="5" max="7" width="3.44140625" style="20" customWidth="1"/>
-    <col min="8" max="9" width="24.44140625" style="20" customWidth="1"/>
-    <col min="10" max="12" width="3.44140625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" style="20" customWidth="1"/>
+    <col min="5" max="7" width="3.453125" style="20" customWidth="1"/>
+    <col min="8" max="9" width="24.453125" style="20" customWidth="1"/>
+    <col min="10" max="12" width="3.453125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="20" customWidth="1"/>
     <col min="14" max="14" width="9" style="20" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="20" customWidth="1"/>
-    <col min="16" max="16" width="45.77734375" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="20"/>
+    <col min="15" max="15" width="3.81640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="45.81640625" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="11.54296875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3433,7 +3880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3474,7 +3921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3515,7 +3962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3556,7 +4003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -3597,7 +4044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -3638,7 +4085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3679,7 +4126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +4167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +4208,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="65" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -3802,41 +4249,89 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="55" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="69">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="70">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="15"/>
+      <c r="B14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" s="65" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="55" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>86</v>
       </c>
@@ -3853,59 +4348,59 @@
       <c r="L15" s="18"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="15:16" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="15:16" s="65" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O18" s="55" t="s">
+    <row r="16" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="15:16" s="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="15:16" s="55" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O18" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="68"/>
+      <c r="P18" s="59"/>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="66" t="s">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="67" t="s">
+      <c r="P19" s="57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="66" t="s">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="66" t="s">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="67" t="s">
+      <c r="P21" s="57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="66" t="s">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="67" t="s">
+      <c r="P22" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O23" s="66" t="s">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="67" t="s">
+      <c r="P23" s="57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="66" t="s">
+    <row r="24" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="67" t="s">
+      <c r="P24" s="57" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3924,33 +4419,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="20"/>
-    <col min="2" max="2" width="14.44140625" style="20" customWidth="1"/>
-    <col min="3" max="5" width="12.77734375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="20"/>
-    <col min="7" max="7" width="3.5546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
-    <col min="9" max="11" width="25.88671875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="20"/>
-    <col min="13" max="13" width="20.6640625" style="20" customWidth="1"/>
-    <col min="14" max="16" width="15.109375" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="20"/>
+    <col min="1" max="1" width="11.54296875" style="20"/>
+    <col min="2" max="2" width="14.453125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="12.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="20"/>
+    <col min="7" max="7" width="3.54296875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="20" customWidth="1"/>
+    <col min="9" max="11" width="25.90625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" style="20"/>
+    <col min="13" max="13" width="20.6328125" style="20" customWidth="1"/>
+    <col min="14" max="16" width="15.08984375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="11.54296875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
@@ -3964,7 +4459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="42" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>74</v>
       </c>
@@ -3978,7 +4473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3992,14 +4487,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="56" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
         <v>70</v>
@@ -4011,7 +4506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="28" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>79</v>
       </c>
@@ -4025,7 +4520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
@@ -4035,7 +4530,7 @@
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
     </row>
-    <row r="14" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -4045,9 +4540,9 @@
       <c r="L14" s="50"/>
       <c r="M14" s="50"/>
     </row>
-    <row r="15" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="50"/>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="63" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="27" t="s">
@@ -4065,9 +4560,9 @@
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
     </row>
-    <row r="16" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="50"/>
-      <c r="G16" s="60"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="31" t="s">
         <v>84</v>
       </c>
@@ -4083,9 +4578,9 @@
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
     </row>
-    <row r="17" spans="6:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="50"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="35" t="s">
         <v>83</v>
       </c>
@@ -4101,7 +4596,7 @@
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
@@ -4117,19 +4612,19 @@
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
     </row>
-    <row r="19" spans="6:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="50"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
@@ -4139,7 +4634,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
@@ -4148,15 +4643,15 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M22" s="42"/>
-      <c r="N22" s="56" t="s">
+      <c r="N22" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
     </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M23" s="42" t="s">
         <v>68</v>
       </c>
@@ -4170,7 +4665,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M24" s="42" t="s">
         <v>101</v>
       </c>
@@ -4184,7 +4679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M25" s="42" t="s">
         <v>73</v>
       </c>
@@ -4198,21 +4693,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
     </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M27" s="57"/>
-      <c r="N27" s="56" t="s">
+    <row r="27" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="M27" s="61"/>
+      <c r="N27" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
     </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="M28" s="58"/>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="M28" s="62"/>
       <c r="N28" s="47" t="s">
         <v>70</v>
       </c>
@@ -4223,7 +4718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="6:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:16" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M29" s="44" t="s">
         <v>79</v>
       </c>

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d3d50152f9d1fbf/FHNW/2.Semester/pro2E/GitHub/P2Pflichtenheft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\FHNW\2.Semester\pro2E\GitHub\P2Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="102_{F2D96540-3423-4F2E-ADCA-B42449A32093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{BBFBAB3A-3CAA-46A2-9B7D-D6FEA4A92BFE}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="102_{F2D96540-3423-4F2E-ADCA-B42449A32093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{7C55E359-3696-49AB-9069-23DA26D8214F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14020" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
+    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14020" activeTab="1" xr2:uid="{47388EFE-A197-4ACA-8E67-E07DAE3FFCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoliste" sheetId="1" r:id="rId1"/>
@@ -928,6 +928,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,12 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3760,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD6569-5768-494D-BE17-E5B41FC65FC6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3780,23 +3780,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4268,7 +4268,7 @@
       <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="58">
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -4283,14 +4283,14 @@
       <c r="K13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="59">
         <v>1</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="55" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -4351,10 +4351,10 @@
     <row r="16" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="15:16" s="55" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="15:16" s="55" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="59"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O19" s="56" t="s">
@@ -4419,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7A736-9363-4CF6-BDAA-9052391D740B}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4439,11 +4439,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -4488,11 +4488,11 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="15" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="50"/>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="65" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="27" t="s">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="16" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="50"/>
-      <c r="G16" s="64"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="31" t="s">
         <v>84</v>
       </c>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="17" spans="6:16" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="50"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="35" t="s">
         <v>83</v>
       </c>
@@ -4616,11 +4616,11 @@
       <c r="F19" s="50"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
     </row>
@@ -4645,11 +4645,11 @@
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M22" s="42"/>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M23" s="42" t="s">
@@ -4699,15 +4699,15 @@
       <c r="P26" s="45"/>
     </row>
     <row r="27" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="61"/>
-      <c r="N27" s="60" t="s">
+      <c r="M27" s="63"/>
+      <c r="N27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
     </row>
     <row r="28" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="62"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="47" t="s">
         <v>70</v>
       </c>
